--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,115 +40,142 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>pressure</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>facing</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>died</t>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>saudi</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>struggling</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>affected</t>
@@ -160,21 +187,30 @@
     <t>stop</t>
   </si>
   <si>
+    <t>shortages</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>related</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>shortage</t>
+    <t>bad</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
@@ -184,157 +220,184 @@
     <t>19</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>join</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
     <t>shop</t>
   </si>
   <si>
-    <t>keep</t>
+    <t>stay</t>
   </si>
   <si>
     <t>day</t>
@@ -346,13 +409,25 @@
     <t>local</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -710,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,10 +793,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -779,13 +854,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -797,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -821,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,13 +904,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -850,16 +925,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -871,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -897,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -929,13 +1004,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -947,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="K6">
-        <v>0.9162303664921466</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L6">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -968,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,13 +1054,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8458904109589042</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C7">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D7">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -997,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1021,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,13 +1104,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,16 +1125,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K8">
-        <v>0.8837209302325582</v>
+        <v>0.90625</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1071,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,13 +1154,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1097,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="K9">
-        <v>0.8793103448275862</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>346</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>346</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1121,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,13 +1204,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7948717948717948</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1147,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="K10">
-        <v>0.8773584905660378</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1171,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,13 +1254,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7843137254901961</v>
+        <v>0.825</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1197,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1221,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,49 +1304,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7647058823529411</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="L12">
+        <v>93</v>
+      </c>
+      <c r="M12">
+        <v>93</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>13</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12">
-        <v>0.8723404255319149</v>
-      </c>
-      <c r="L12">
-        <v>41</v>
-      </c>
-      <c r="M12">
-        <v>41</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.76</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1297,31 +1372,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="L13">
+        <v>41</v>
+      </c>
+      <c r="M13">
+        <v>41</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13">
-        <v>0.86875</v>
-      </c>
-      <c r="L13">
-        <v>139</v>
-      </c>
-      <c r="M13">
-        <v>139</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,49 +1404,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14">
+        <v>0.8625</v>
+      </c>
+      <c r="L14">
+        <v>138</v>
+      </c>
+      <c r="M14">
+        <v>138</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>22</v>
-      </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14">
-        <v>0.8591549295774648</v>
-      </c>
-      <c r="L14">
-        <v>122</v>
-      </c>
-      <c r="M14">
-        <v>122</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1379,13 +1454,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7267441860465116</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C15">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1397,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="K15">
-        <v>0.8536585365853658</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1421,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1429,13 +1504,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7222222222222222</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1447,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="K16">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1471,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1479,13 +1554,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7142857142857143</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C17">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1497,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="K17">
-        <v>0.82</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1521,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1529,13 +1604,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7037037037037037</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1547,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K18">
-        <v>0.8095238095238095</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1571,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1579,13 +1654,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7027027027027027</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1597,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K19">
-        <v>0.7916666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1621,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1629,13 +1704,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1647,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1671,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1679,13 +1754,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6949152542372882</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1697,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1721,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1729,13 +1804,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1747,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K22">
-        <v>0.7558823529411764</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1771,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1779,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6521739130434783</v>
+        <v>0.7383720930232558</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1797,31 +1872,31 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>135</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23">
+        <v>0.8</v>
+      </c>
+      <c r="L23">
+        <v>32</v>
+      </c>
+      <c r="M23">
+        <v>32</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>8</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23">
-        <v>0.7531380753138075</v>
-      </c>
-      <c r="L23">
-        <v>180</v>
-      </c>
-      <c r="M23">
-        <v>180</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1829,13 +1904,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6375838926174496</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C24">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1847,19 +1922,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K24">
-        <v>0.7457627118644068</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1871,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1879,13 +1954,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6363636363636364</v>
+        <v>0.71875</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1897,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K25">
-        <v>0.7340425531914894</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1921,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1929,13 +2004,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6153846153846154</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1947,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K26">
-        <v>0.7285714285714285</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1971,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1979,13 +2054,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6129032258064516</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1997,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K27">
-        <v>0.7230769230769231</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2021,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2029,13 +2104,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5925925925925926</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2050,16 +2125,16 @@
         <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K28">
-        <v>0.7058823529411765</v>
+        <v>0.7735294117647059</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2071,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2079,13 +2154,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5909090909090909</v>
+        <v>0.7</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2100,16 +2175,16 @@
         <v>9</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="K29">
-        <v>0.696969696969697</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2121,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2129,13 +2204,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5769230769230769</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2147,19 +2222,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="K30">
-        <v>0.6853932584269663</v>
+        <v>0.75</v>
       </c>
       <c r="L30">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2171,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2179,13 +2254,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2197,19 +2272,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="K31">
-        <v>0.65</v>
+        <v>0.7491525423728813</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2221,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2229,13 +2304,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5652173913043478</v>
+        <v>0.6510067114093959</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2247,19 +2322,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K32">
-        <v>0.6027397260273972</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2271,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2279,13 +2354,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5636363636363636</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2297,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="K33">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2321,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2329,13 +2404,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5600000000000001</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2347,19 +2422,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="K34">
-        <v>0.5909090909090909</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2371,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2379,13 +2454,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5483870967741935</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2397,19 +2472,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="K35">
-        <v>0.5769230769230769</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2421,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2429,13 +2504,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5161290322580645</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2447,19 +2522,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="K36">
-        <v>0.5757575757575758</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2471,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2479,13 +2554,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2497,19 +2572,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2521,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2529,13 +2604,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="C38">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D38">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2547,19 +2622,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="K38">
-        <v>0.5428571428571428</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2571,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2579,13 +2654,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4666666666666667</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2597,19 +2672,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="K39">
-        <v>0.5357142857142857</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2621,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2629,13 +2704,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4193548387096774</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2647,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2671,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2679,13 +2754,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4155844155844156</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2697,19 +2772,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="K41">
-        <v>0.484375</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2721,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2729,13 +2804,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4087301587301587</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C42">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2747,19 +2822,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="K42">
-        <v>0.4814814814814815</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2771,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2779,13 +2854,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2797,19 +2872,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K43">
-        <v>0.4385964912280702</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2821,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2829,13 +2904,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3023255813953488</v>
+        <v>0.5</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2847,31 +2922,31 @@
         <v>0</v>
       </c>
       <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44">
+        <v>0.589041095890411</v>
+      </c>
+      <c r="L44">
+        <v>43</v>
+      </c>
+      <c r="M44">
+        <v>43</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>30</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K44">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="L44">
-        <v>13</v>
-      </c>
-      <c r="M44">
-        <v>13</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2879,13 +2954,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3002680965147453</v>
+        <v>0.5</v>
       </c>
       <c r="C45">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2897,19 +2972,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K45">
-        <v>0.4193548387096774</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2921,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2929,37 +3004,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2711864406779661</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>16</v>
       </c>
-      <c r="D46">
-        <v>16</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>43</v>
-      </c>
       <c r="J46" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="K46">
-        <v>0.3728813559322034</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2971,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2979,13 +3054,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1133333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C47">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2997,31 +3072,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="K47">
-        <v>0.3181818181818182</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L47">
+        <v>17</v>
+      </c>
+      <c r="M47">
+        <v>17</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>14</v>
-      </c>
-      <c r="M47">
-        <v>14</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3029,49 +3104,49 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.025</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>27</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K48">
+        <v>0.53125</v>
+      </c>
+      <c r="L48">
+        <v>34</v>
+      </c>
+      <c r="M48">
+        <v>34</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>30</v>
-      </c>
-      <c r="E48">
-        <v>0.03</v>
-      </c>
-      <c r="F48">
-        <v>0.97</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1131</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K48">
-        <v>0.2786885245901639</v>
-      </c>
-      <c r="L48">
-        <v>17</v>
-      </c>
-      <c r="M48">
-        <v>17</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3079,49 +3154,49 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.01845257364842991</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C49">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E49">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>3032</v>
+        <v>17</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K49">
-        <v>0.1574074074074074</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3129,37 +3204,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.009873060648801129</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E50">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.5700000000000001</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>2106</v>
+        <v>43</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="K50">
-        <v>0.1189189189189189</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3171,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>163</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3179,283 +3254,907 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004441624365482234</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C51">
+        <v>108</v>
+      </c>
+      <c r="D51">
+        <v>108</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>144</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K51">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="L51">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <v>30</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>25</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K52">
+        <v>0.5</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>22</v>
+      </c>
+      <c r="N52">
+        <v>0.91</v>
+      </c>
+      <c r="O52">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.35</v>
+      </c>
+      <c r="C53">
+        <v>28</v>
+      </c>
+      <c r="D53">
+        <v>28</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>52</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K53">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>13</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>14</v>
       </c>
-      <c r="D51">
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.3163538873994638</v>
+      </c>
+      <c r="C54">
+        <v>118</v>
+      </c>
+      <c r="D54">
+        <v>118</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>255</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K54">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="L54">
+        <v>26</v>
+      </c>
+      <c r="M54">
+        <v>26</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>31</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K55">
+        <v>0.3457943925233645</v>
+      </c>
+      <c r="L55">
+        <v>37</v>
+      </c>
+      <c r="M55">
+        <v>39</v>
+      </c>
+      <c r="N55">
+        <v>0.95</v>
+      </c>
+      <c r="O55">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.23</v>
+      </c>
+      <c r="C56">
+        <v>69</v>
+      </c>
+      <c r="D56">
+        <v>69</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>231</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K56">
+        <v>0.2822580645161291</v>
+      </c>
+      <c r="L56">
+        <v>35</v>
+      </c>
+      <c r="M56">
+        <v>35</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.2203389830508475</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>46</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K57">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="L57">
+        <v>14</v>
+      </c>
+      <c r="M57">
+        <v>15</v>
+      </c>
+      <c r="N57">
+        <v>0.93</v>
+      </c>
+      <c r="O57">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E51">
-        <v>0.78</v>
-      </c>
-      <c r="F51">
-        <v>0.22</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>3138</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K51">
-        <v>0.1048387096774194</v>
-      </c>
-      <c r="L51">
+      <c r="B58">
+        <v>0.08050847457627118</v>
+      </c>
+      <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>217</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K58">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="L58">
+        <v>30</v>
+      </c>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.07191780821917808</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>0.05</v>
+      </c>
+      <c r="F59">
+        <v>0.95</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>271</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K59">
+        <v>0.1009771986970684</v>
+      </c>
+      <c r="L59">
+        <v>31</v>
+      </c>
+      <c r="M59">
+        <v>32</v>
+      </c>
+      <c r="N59">
+        <v>0.97</v>
+      </c>
+      <c r="O59">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.03793103448275862</v>
+      </c>
+      <c r="C60">
+        <v>44</v>
+      </c>
+      <c r="D60">
+        <v>45</v>
+      </c>
+      <c r="E60">
+        <v>0.02</v>
+      </c>
+      <c r="F60">
+        <v>0.98</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1116</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K60">
+        <v>0.0979020979020979</v>
+      </c>
+      <c r="L60">
+        <v>14</v>
+      </c>
+      <c r="M60">
+        <v>14</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.03465025906735751</v>
+      </c>
+      <c r="C61">
+        <v>107</v>
+      </c>
+      <c r="D61">
+        <v>126</v>
+      </c>
+      <c r="E61">
+        <v>0.15</v>
+      </c>
+      <c r="F61">
+        <v>0.85</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2981</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K61">
+        <v>0.0872093023255814</v>
+      </c>
+      <c r="L61">
+        <v>15</v>
+      </c>
+      <c r="M61">
+        <v>15</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.02403393025447691</v>
+      </c>
+      <c r="C62">
+        <v>51</v>
+      </c>
+      <c r="D62">
+        <v>72</v>
+      </c>
+      <c r="E62">
+        <v>0.29</v>
+      </c>
+      <c r="F62">
+        <v>0.71</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>2071</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K62">
+        <v>0.08641975308641975</v>
+      </c>
+      <c r="L62">
+        <v>14</v>
+      </c>
+      <c r="M62">
+        <v>15</v>
+      </c>
+      <c r="N62">
+        <v>0.93</v>
+      </c>
+      <c r="O62">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.02209302325581395</v>
+      </c>
+      <c r="C63">
+        <v>19</v>
+      </c>
+      <c r="D63">
+        <v>26</v>
+      </c>
+      <c r="E63">
+        <v>0.27</v>
+      </c>
+      <c r="F63">
+        <v>0.73</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>841</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63">
+        <v>0.06620209059233449</v>
+      </c>
+      <c r="L63">
+        <v>19</v>
+      </c>
+      <c r="M63">
+        <v>21</v>
+      </c>
+      <c r="N63">
+        <v>0.9</v>
+      </c>
+      <c r="O63">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.008670520231213872</v>
+      </c>
+      <c r="C64">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <v>114</v>
+      </c>
+      <c r="E64">
+        <v>0.76</v>
+      </c>
+      <c r="F64">
+        <v>0.24</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>3087</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K64">
+        <v>0.06017191977077364</v>
+      </c>
+      <c r="L64">
+        <v>21</v>
+      </c>
+      <c r="M64">
+        <v>21</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K65">
+        <v>0.04567307692307692</v>
+      </c>
+      <c r="L65">
+        <v>19</v>
+      </c>
+      <c r="M65">
+        <v>19</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K66">
+        <v>0.0327613104524181</v>
+      </c>
+      <c r="L66">
+        <v>21</v>
+      </c>
+      <c r="M66">
+        <v>30</v>
+      </c>
+      <c r="N66">
+        <v>0.7</v>
+      </c>
+      <c r="O66">
+        <v>0.3</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K67">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="L67">
+        <v>25</v>
+      </c>
+      <c r="M67">
+        <v>26</v>
+      </c>
+      <c r="N67">
+        <v>0.96</v>
+      </c>
+      <c r="O67">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K68">
+        <v>0.02741020793950851</v>
+      </c>
+      <c r="L68">
+        <v>87</v>
+      </c>
+      <c r="M68">
+        <v>114</v>
+      </c>
+      <c r="N68">
+        <v>0.76</v>
+      </c>
+      <c r="O68">
+        <v>0.24</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K69">
+        <v>0.0167973124300112</v>
+      </c>
+      <c r="L69">
+        <v>15</v>
+      </c>
+      <c r="M69">
+        <v>16</v>
+      </c>
+      <c r="N69">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O69">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K70">
+        <v>0.01359832635983264</v>
+      </c>
+      <c r="L70">
         <v>13</v>
       </c>
-      <c r="M51">
-        <v>13</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K52">
-        <v>0.09859154929577464</v>
-      </c>
-      <c r="L52">
-        <v>14</v>
-      </c>
-      <c r="M52">
-        <v>15</v>
-      </c>
-      <c r="N52">
-        <v>0.93</v>
-      </c>
-      <c r="O52">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K53">
-        <v>0.0872093023255814</v>
-      </c>
-      <c r="L53">
-        <v>15</v>
-      </c>
-      <c r="M53">
-        <v>15</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="J54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K54">
-        <v>0.08641975308641975</v>
-      </c>
-      <c r="L54">
-        <v>14</v>
-      </c>
-      <c r="M54">
-        <v>15</v>
-      </c>
-      <c r="N54">
-        <v>0.93</v>
-      </c>
-      <c r="O54">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="J55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K55">
-        <v>0.07451923076923077</v>
-      </c>
-      <c r="L55">
-        <v>31</v>
-      </c>
-      <c r="M55">
-        <v>31</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="J56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K56">
-        <v>0.06876790830945559</v>
-      </c>
-      <c r="L56">
-        <v>24</v>
-      </c>
-      <c r="M56">
-        <v>24</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K57">
-        <v>0.06514657980456026</v>
-      </c>
-      <c r="L57">
-        <v>20</v>
-      </c>
-      <c r="M57">
+      <c r="M70">
+        <v>25</v>
+      </c>
+      <c r="N70">
+        <v>0.52</v>
+      </c>
+      <c r="O70">
+        <v>0.48</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71">
+        <v>0.01003824091778203</v>
+      </c>
+      <c r="L71">
         <v>21</v>
       </c>
-      <c r="N57">
-        <v>0.95</v>
-      </c>
-      <c r="O57">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K58">
-        <v>0.01537496077816128</v>
-      </c>
-      <c r="L58">
-        <v>49</v>
-      </c>
-      <c r="M58">
-        <v>63</v>
-      </c>
-      <c r="N58">
-        <v>0.78</v>
-      </c>
-      <c r="O58">
-        <v>0.22</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K59">
-        <v>0.007540056550424128</v>
-      </c>
-      <c r="L59">
-        <v>16</v>
-      </c>
-      <c r="M59">
-        <v>37</v>
-      </c>
-      <c r="N59">
-        <v>0.43</v>
-      </c>
-      <c r="O59">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K60">
-        <v>0.005901639344262295</v>
-      </c>
-      <c r="L60">
-        <v>18</v>
-      </c>
-      <c r="M60">
-        <v>75</v>
-      </c>
-      <c r="N60">
-        <v>0.24</v>
-      </c>
-      <c r="O60">
-        <v>0.76</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>3032</v>
+      <c r="M71">
+        <v>72</v>
+      </c>
+      <c r="N71">
+        <v>0.29</v>
+      </c>
+      <c r="O71">
+        <v>0.71</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K72">
+        <v>0.006333333333333333</v>
+      </c>
+      <c r="L72">
+        <v>19</v>
+      </c>
+      <c r="M72">
+        <v>126</v>
+      </c>
+      <c r="N72">
+        <v>0.15</v>
+      </c>
+      <c r="O72">
+        <v>0.85</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2981</v>
       </c>
     </row>
   </sheetData>
